--- a/JavaApplication19/src/excel/CRM.xlsx
+++ b/JavaApplication19/src/excel/CRM.xlsx
@@ -1,26 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Google Drive\EPIC MOUNTAIN\ADMINISTRACIÒN\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA40CCE3-197B-4F61-A33F-56625799B148}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0F05C854-3B11-4A54-A23A-5F8640A13B2A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="CLIENTES DE INICIO (1)" sheetId="1" r:id="rId1"/>
+    <sheet name="CLIENTES FRECUENTES (2)" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>UBICACIÓN</t>
+  </si>
+  <si>
+    <t>GABRIEL PEREZ</t>
+  </si>
+  <si>
+    <t>CHIHUAHUA, CHIH.</t>
+  </si>
+  <si>
+    <t>PACO CHAVEZ</t>
+  </si>
+  <si>
+    <t>MORELIA, MICHOACÀN</t>
+  </si>
+  <si>
+    <t>WHATSAPP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORREO </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +67,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF03DF7B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,15 +103,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Salida" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -68,8 +152,58 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>450274</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="495300" cy="371522"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="12 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36A20111-8672-4F89-8E6B-2348283DEE66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="450274" y="9526"/>
+          <a:ext cx="495300" cy="371522"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -85,7 +219,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -97,7 +231,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -144,6 +278,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -179,6 +330,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -330,12 +498,1235 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF88BFBD-5212-4B86-8C87-DFFC23B6C3D0}">
+  <dimension ref="A1:D197"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="4" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4431383904</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>6141971864</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+    </row>
+    <row r="80" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+    </row>
+    <row r="86" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+    </row>
+    <row r="89" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+    </row>
+    <row r="94" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+    </row>
+    <row r="95" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+    </row>
+    <row r="103" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+    </row>
+    <row r="106" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+    </row>
+    <row r="107" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+    </row>
+    <row r="108" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+    </row>
+    <row r="110" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+    </row>
+    <row r="111" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+    </row>
+    <row r="112" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+    </row>
+    <row r="113" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+    </row>
+    <row r="114" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+    </row>
+    <row r="115" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+    </row>
+    <row r="116" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+    </row>
+    <row r="117" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+    </row>
+    <row r="118" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+    </row>
+    <row r="119" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+    </row>
+    <row r="120" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+    </row>
+    <row r="121" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+    </row>
+    <row r="122" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+    </row>
+    <row r="123" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+    </row>
+    <row r="124" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+    </row>
+    <row r="125" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+    </row>
+    <row r="126" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+    </row>
+    <row r="127" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+    </row>
+    <row r="128" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+    </row>
+    <row r="129" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+    </row>
+    <row r="130" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+    </row>
+    <row r="131" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+    </row>
+    <row r="132" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+    </row>
+    <row r="133" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+    </row>
+    <row r="134" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+    </row>
+    <row r="135" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+    </row>
+    <row r="136" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+    </row>
+    <row r="137" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+    </row>
+    <row r="138" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+    </row>
+    <row r="139" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+    </row>
+    <row r="140" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+    </row>
+    <row r="141" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+    </row>
+    <row r="142" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+    </row>
+    <row r="143" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+    </row>
+    <row r="144" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+    </row>
+    <row r="145" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+    </row>
+    <row r="146" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+    </row>
+    <row r="147" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+    </row>
+    <row r="148" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+    </row>
+    <row r="149" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+    </row>
+    <row r="150" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+    </row>
+    <row r="151" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+    </row>
+    <row r="152" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+    </row>
+    <row r="153" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+    </row>
+    <row r="154" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+    </row>
+    <row r="155" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+    </row>
+    <row r="156" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+    </row>
+    <row r="157" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+    </row>
+    <row r="158" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+    </row>
+    <row r="159" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+    </row>
+    <row r="160" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+    </row>
+    <row r="161" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+    </row>
+    <row r="162" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+    </row>
+    <row r="163" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="1"/>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+    </row>
+    <row r="164" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+    </row>
+    <row r="165" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+    </row>
+    <row r="166" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+    </row>
+    <row r="167" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+    </row>
+    <row r="168" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+    </row>
+    <row r="169" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+    </row>
+    <row r="170" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+    </row>
+    <row r="171" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+    </row>
+    <row r="172" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+    </row>
+    <row r="173" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+    </row>
+    <row r="174" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+    </row>
+    <row r="175" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="1"/>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+    </row>
+    <row r="176" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+    </row>
+    <row r="177" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+    </row>
+    <row r="178" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+    </row>
+    <row r="179" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="1"/>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+    </row>
+    <row r="180" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="1"/>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+    </row>
+    <row r="181" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="1"/>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+    </row>
+    <row r="182" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="1"/>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+    </row>
+    <row r="183" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="1"/>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+    </row>
+    <row r="184" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="1"/>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+    </row>
+    <row r="185" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="1"/>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+    </row>
+    <row r="186" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="1"/>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+    </row>
+    <row r="187" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="1"/>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+    </row>
+    <row r="188" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="1"/>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+    </row>
+    <row r="189" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="1"/>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+    </row>
+    <row r="190" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="1"/>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
+    </row>
+    <row r="191" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="1"/>
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+    </row>
+    <row r="192" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="1"/>
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+    </row>
+    <row r="193" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="1"/>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+    </row>
+    <row r="194" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="1"/>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+    </row>
+    <row r="195" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="1"/>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+    </row>
+    <row r="196" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="1"/>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+    </row>
+    <row r="197" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="1"/>
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4065BCC9-2F74-4BA8-9585-C2AC8C0D8B36}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JavaApplication19/src/excel/CRM.xlsx
+++ b/JavaApplication19/src/excel/CRM.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Google Drive\EPIC MOUNTAIN\ADMINISTRACIÒN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA40CCE3-197B-4F61-A33F-56625799B148}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED61A88-B7A9-47DA-A4DA-834C417C2CC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0F05C854-3B11-4A54-A23A-5F8640A13B2A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0F05C854-3B11-4A54-A23A-5F8640A13B2A}"/>
   </bookViews>
   <sheets>
-    <sheet name="CLIENTES DE INICIO (1)" sheetId="1" r:id="rId1"/>
+    <sheet name="CLIENTES DE INICIO" sheetId="1" r:id="rId1"/>
     <sheet name="CLIENTES FRECUENTES (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -137,7 +137,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Salida" xfId="1" builtinId="21"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -203,7 +203,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -503,16 +503,16 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="4" width="30.7109375" customWidth="1"/>
+    <col min="1" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="4" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="2" t="s">
         <v>5</v>
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -536,7 +536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -548,1165 +548,1165 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
     </row>
-    <row r="126" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
     </row>
-    <row r="127" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
     </row>
-    <row r="128" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
     </row>
-    <row r="129" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
     </row>
-    <row r="130" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
     </row>
-    <row r="131" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
     </row>
-    <row r="132" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
     </row>
-    <row r="133" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
     </row>
-    <row r="134" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
     </row>
-    <row r="135" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
     </row>
-    <row r="136" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
     </row>
-    <row r="137" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
     </row>
-    <row r="138" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
     </row>
-    <row r="139" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
     </row>
-    <row r="140" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
     </row>
-    <row r="141" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
     </row>
-    <row r="142" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
     </row>
-    <row r="143" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
     </row>
-    <row r="144" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
     </row>
-    <row r="145" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
     </row>
-    <row r="146" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
     </row>
-    <row r="147" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
     </row>
-    <row r="148" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
     </row>
-    <row r="149" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
     </row>
-    <row r="150" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
     </row>
-    <row r="151" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
     </row>
-    <row r="152" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
     </row>
-    <row r="153" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
     </row>
-    <row r="154" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
     </row>
-    <row r="155" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
     </row>
-    <row r="156" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
     </row>
-    <row r="157" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
     </row>
-    <row r="158" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
     </row>
-    <row r="159" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
     </row>
-    <row r="160" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
     </row>
-    <row r="161" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
     </row>
-    <row r="162" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
     </row>
-    <row r="163" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
     </row>
-    <row r="164" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
     </row>
-    <row r="165" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
     </row>
-    <row r="166" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
     </row>
-    <row r="167" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
     </row>
-    <row r="168" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
     </row>
-    <row r="169" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
     </row>
-    <row r="170" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
     </row>
-    <row r="171" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
     </row>
-    <row r="172" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
     </row>
-    <row r="173" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
     </row>
-    <row r="174" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
     </row>
-    <row r="175" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
     </row>
-    <row r="176" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
     </row>
-    <row r="177" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
     </row>
-    <row r="178" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
     </row>
-    <row r="179" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
     </row>
-    <row r="180" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
     </row>
-    <row r="181" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
     </row>
-    <row r="182" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
     </row>
-    <row r="183" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
     </row>
-    <row r="184" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
     </row>
-    <row r="185" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
     </row>
-    <row r="186" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
     </row>
-    <row r="187" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
     </row>
-    <row r="188" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
     </row>
-    <row r="189" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
     </row>
-    <row r="190" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
     </row>
-    <row r="191" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
     </row>
-    <row r="192" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
     </row>
-    <row r="193" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
     </row>
-    <row r="194" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
     </row>
-    <row r="195" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
     </row>
-    <row r="196" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
     </row>
-    <row r="197" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -1726,7 +1726,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JavaApplication19/src/excel/CRM.xlsx
+++ b/JavaApplication19/src/excel/CRM.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -61,6 +61,24 @@
   </si>
   <si>
     <t>Chihuahua</t>
+  </si>
+  <si>
+    <t>bichin</t>
+  </si>
+  <si>
+    <t>6271167899</t>
+  </si>
+  <si>
+    <t>bichin@gmail.com</t>
+  </si>
+  <si>
+    <t>Chumel</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>correo de chumel</t>
   </si>
 </sst>
 </file>
@@ -438,17 +456,33 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JavaApplication19/src/excel/CRM.xlsx
+++ b/JavaApplication19/src/excel/CRM.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -79,6 +79,36 @@
   </si>
   <si>
     <t>correo de chumel</t>
+  </si>
+  <si>
+    <t>daniel</t>
+  </si>
+  <si>
+    <t>324567</t>
+  </si>
+  <si>
+    <t>cosmicadas.sdkj</t>
+  </si>
+  <si>
+    <t>chihuahua</t>
+  </si>
+  <si>
+    <t>Temo</t>
+  </si>
+  <si>
+    <t>627576890</t>
+  </si>
+  <si>
+    <t>temo.com</t>
+  </si>
+  <si>
+    <t>dary</t>
+  </si>
+  <si>
+    <t>345678</t>
+  </si>
+  <si>
+    <t>asdasda</t>
   </si>
 </sst>
 </file>
@@ -406,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -484,6 +514,48 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/JavaApplication19/src/excel/CRM.xlsx
+++ b/JavaApplication19/src/excel/CRM.xlsx
@@ -1,122 +1,68 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
-  <workbookPr/>
-  <mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Desarrollo\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Google Drive\EPIC MOUNTAIN\ADMINISTRACIÒN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26123D93-756E-4170-99AB-CADAC3B05673}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935A2610-1820-473A-8331-6E68A86AD624}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0F05C854-3B11-4A54-A23A-5F8640A13B2A}"/>
   </bookViews>
   <sheets>
-    <sheet name="CLIENTES" sheetId="1" r:id="rId1"/>
+    <sheet name="CLIENTES DE INICIO (1)" sheetId="1" r:id="rId1"/>
+    <sheet name="CLIENTES FRECUENTES (2)" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>NOMBRE</t>
+    <t>UBICACIÓN</t>
   </si>
   <si>
-    <t>NUMERO</t>
+    <t>GABRIEL PEREZ</t>
   </si>
   <si>
-    <t>CORREO</t>
+    <t>CHIHUAHUA, CHIH.</t>
   </si>
   <si>
-    <t>UBICACION</t>
+    <t>PACO CHAVEZ</t>
   </si>
   <si>
-    <t>IVAN</t>
+    <t>MORELIA, MICHOACÀN</t>
   </si>
   <si>
-    <t>6271119923</t>
+    <t>WHATSAPP</t>
   </si>
   <si>
-    <t>GROWUPParral@gmail.com</t>
+    <t xml:space="preserve">CORREO </t>
   </si>
   <si>
-    <t>parral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alejandro </t>
-  </si>
-  <si>
-    <t>6272310248</t>
-  </si>
-  <si>
-    <t>a320769@uach.mx</t>
-  </si>
-  <si>
-    <t>Chihuahua</t>
-  </si>
-  <si>
-    <t>bichin</t>
-  </si>
-  <si>
-    <t>6271167899</t>
-  </si>
-  <si>
-    <t>bichin@gmail.com</t>
-  </si>
-  <si>
-    <t>Chumel</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>correo de chumel</t>
-  </si>
-  <si>
-    <t>daniel</t>
-  </si>
-  <si>
-    <t>324567</t>
-  </si>
-  <si>
-    <t>cosmicadas.sdkj</t>
-  </si>
-  <si>
-    <t>chihuahua</t>
-  </si>
-  <si>
-    <t>Temo</t>
-  </si>
-  <si>
-    <t>627576890</t>
-  </si>
-  <si>
-    <t>temo.com</t>
-  </si>
-  <si>
-    <t>dary</t>
-  </si>
-  <si>
-    <t>345678</t>
-  </si>
-  <si>
-    <t>asdasda</t>
+    <t>HISTORIAL DE COMPRAS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,23 +71,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF03DF7B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -149,16 +114,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Salida" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -173,8 +163,58 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1008167</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="624690" cy="468576"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="12 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36A20111-8672-4F89-8E6B-2348283DEE66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1008167" y="0"/>
+          <a:ext cx="624690" cy="468576"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -190,7 +230,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -202,7 +242,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -219,7 +259,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -249,12 +289,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -284,6 +341,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -435,129 +509,273 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF88BFBD-5212-4B86-8C87-DFFC23B6C3D0}">
+  <dimension ref="A1:E200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="40.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4431383904</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B3" s="1">
+        <v>6141971864</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
+      <c r="E3" s="1"/>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-    </row>
+    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4065BCC9-2F74-4BA8-9585-C2AC8C0D8B36}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/JavaApplication19/src/excel/CRM.xlsx
+++ b/JavaApplication19/src/excel/CRM.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Google Drive\EPIC MOUNTAIN\ADMINISTRACIÒN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935A2610-1820-473A-8331-6E68A86AD624}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EAC65E0-E8E8-4B63-966E-6C0303B92D59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0F05C854-3B11-4A54-A23A-5F8640A13B2A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0F05C854-3B11-4A54-A23A-5F8640A13B2A}"/>
   </bookViews>
   <sheets>
-    <sheet name="CLIENTES DE INICIO (1)" sheetId="1" r:id="rId1"/>
-    <sheet name="CLIENTES FRECUENTES (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="CLIENTES" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -148,7 +147,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Salida" xfId="1" builtinId="21"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -214,7 +213,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -514,15 +513,15 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="40.7109375" customWidth="1"/>
+    <col min="1" max="5" width="40.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>5</v>
@@ -537,7 +536,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -550,7 +549,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -563,219 +562,205 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4065BCC9-2F74-4BA8-9585-C2AC8C0D8B36}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/JavaApplication19/src/excel/CRM.xlsx
+++ b/JavaApplication19/src/excel/CRM.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Desarrollo\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EAC65E0-E8E8-4B63-966E-6C0303B92D59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A71BDF-896F-40F4-8709-9D577F73C147}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0F05C854-3B11-4A54-A23A-5F8640A13B2A}"/>
+    <workbookView xWindow="3863" yWindow="3863" windowWidth="21599" windowHeight="11497" xr2:uid="{0F05C854-3B11-4A54-A23A-5F8640A13B2A}"/>
   </bookViews>
   <sheets>
-    <sheet name="CLIENTES" sheetId="1" r:id="rId1"/>
+    <sheet name="Clientes" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -147,7 +147,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="1" builtinId="21"/>
+    <cellStyle name="Salida" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -513,15 +513,15 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="5" width="40.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>5</v>
@@ -536,7 +536,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -549,7 +549,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -562,203 +562,203 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="9" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="12" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="13" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="15" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="18" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="20" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="26" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="27" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="28" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="30" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="31" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="32" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="33" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="35" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="36" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="37" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="38" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="39" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="40" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="42" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="44" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="45" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="46" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="47" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="48" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="49" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="50" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="51" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="52" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="53" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="54" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="55" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="56" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="57" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="58" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="59" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="60" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="61" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="62" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="63" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="64" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="65" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="66" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="67" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="68" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="69" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="70" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="71" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="72" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="73" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="74" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="75" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="76" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="77" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="78" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="79" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="80" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="81" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="83" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="84" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="85" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="86" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="87" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="90" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="91" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="92" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="93" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="94" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="95" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="96" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="97" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="98" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="99" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="100" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="101" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="102" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="103" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="104" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="105" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="106" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="107" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="108" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="109" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="110" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="111" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="112" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="113" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="114" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="115" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="116" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="117" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="118" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="119" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="120" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="121" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="122" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="123" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="136" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="137" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="138" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="139" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="140" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="141" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="142" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="143" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="144" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="145" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="146" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="147" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="148" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="149" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="150" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="151" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="152" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="153" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="154" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="155" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="156" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="157" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="158" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="159" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="160" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="161" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="162" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="163" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="164" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="165" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="166" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="167" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="168" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="169" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="170" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="171" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="172" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="173" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="174" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="175" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="176" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="177" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="178" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="179" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="180" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="181" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="182" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="183" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="184" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="185" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="186" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="187" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="188" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="189" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="190" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="191" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="192" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="193" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="194" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="195" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="196" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="197" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="198" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="199" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="200" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/JavaApplication19/src/excel/CRM.xlsx
+++ b/JavaApplication19/src/excel/CRM.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Desarrollo\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A71BDF-896F-40F4-8709-9D577F73C147}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CC96EB-FEB6-426F-AEC0-AB64B900D54A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3863" yWindow="3863" windowWidth="21599" windowHeight="11497" xr2:uid="{0F05C854-3B11-4A54-A23A-5F8640A13B2A}"/>
+    <workbookView xWindow="3083" yWindow="0" windowWidth="21600" windowHeight="11498" xr2:uid="{0F05C854-3B11-4A54-A23A-5F8640A13B2A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Clientes" sheetId="1" r:id="rId1"/>
+    <sheet name="Clientes" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -167,17 +167,17 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1008167</xdr:colOff>
+      <xdr:colOff>460479</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="624690" cy="468576"/>
+    <xdr:ext cx="457143" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="12 Imagen">
+        <xdr:cNvPr id="2" name="12 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36A20111-8672-4F89-8E6B-2348283DEE66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9569530D-9978-4EBE-ADF7-D35A797AD450}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -199,8 +199,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1008167" y="0"/>
-          <a:ext cx="624690" cy="468576"/>
+          <a:off x="460479" y="14287"/>
+          <a:ext cx="457143" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -508,20 +508,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF88BFBD-5212-4B86-8C87-DFFC23B6C3D0}">
-  <dimension ref="A1:E200"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A92E63-DDFB-4AF5-964A-B20821D090BA}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="5" width="40.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.9296875" customWidth="1"/>
+    <col min="2" max="2" width="24.265625" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="28.9296875" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="31.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>5</v>
@@ -536,7 +539,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -549,7 +552,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -562,203 +565,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="9" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="12" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="13" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="14" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="15" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="18" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="20" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="26" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="27" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="28" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="30" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="31" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="32" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="33" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="35" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="36" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="37" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="38" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="39" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="40" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="42" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="44" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="45" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="46" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="47" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="48" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="49" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="50" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="51" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="52" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="53" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="54" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="55" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="56" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="57" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="58" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="59" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="60" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="61" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="62" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="63" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="64" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="65" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="66" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="67" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="68" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="69" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="70" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="71" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="72" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="73" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="74" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="75" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="76" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="77" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="78" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="79" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="80" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="81" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="83" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="84" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="85" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="86" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="87" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="90" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="91" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="92" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="93" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="94" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="95" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="96" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="97" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="98" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="99" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="100" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="101" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="102" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="103" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="104" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="105" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="106" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="107" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="108" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="109" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="110" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="111" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="112" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="113" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="114" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="115" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="116" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="117" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="118" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="119" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="120" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="121" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="122" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="123" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="136" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="137" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="138" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="139" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="140" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="141" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="142" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="143" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="144" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="145" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="146" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="147" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="148" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="149" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="150" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="151" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="152" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="153" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="154" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="155" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="156" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="157" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="158" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="159" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="160" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="161" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="162" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="163" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="164" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="165" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="166" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="167" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="168" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="169" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="170" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="171" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="172" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="173" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="174" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="175" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="176" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="177" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="178" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="179" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="180" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="181" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="182" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="183" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="184" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="185" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="186" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="187" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="188" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="189" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="190" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="191" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="192" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="193" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="194" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="195" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="196" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="197" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="198" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="199" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="200" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.45"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/JavaApplication19/src/excel/CRM.xlsx
+++ b/JavaApplication19/src/excel/CRM.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Desarrollo\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CC96EB-FEB6-426F-AEC0-AB64B900D54A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5992DD93-398B-4525-870D-202D2647E02B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3083" yWindow="0" windowWidth="21600" windowHeight="11498" xr2:uid="{0F05C854-3B11-4A54-A23A-5F8640A13B2A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Clientes" sheetId="2" r:id="rId1"/>
+    <sheet name="Clientes" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>UBICACIÓN</t>
   </si>
@@ -55,12 +55,25 @@
   </si>
   <si>
     <t>HISTORIAL DE COMPRAS</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>das</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -177,7 +190,7 @@
         <xdr:cNvPr id="2" name="12 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9569530D-9978-4EBE-ADF7-D35A797AD450}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEC19DF4-40FF-4BA5-9FFA-9554A03755C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -508,23 +521,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A92E63-DDFB-4AF5-964A-B20821D090BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E336FB6-013E-4F51-BC45-7961CC177181}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="A4:E4"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.9296875" customWidth="1"/>
-    <col min="2" max="2" width="24.265625" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="28.9296875" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="20.0" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="17.796875" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="14.796875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="26.06640625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="31.46484375" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>5</v>
@@ -539,7 +552,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45" ht="42.75" customHeight="true">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -552,7 +565,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45" ht="42.75" customHeight="true">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -565,7 +578,23 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.45"/>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/JavaApplication19/src/excel/CRM.xlsx
+++ b/JavaApplication19/src/excel/CRM.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>UBICACIÓN</t>
   </si>
@@ -67,6 +67,18 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>correo</t>
+  </si>
+  <si>
+    <t>parral</t>
   </si>
 </sst>
 </file>
@@ -74,7 +86,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,8 +110,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,8 +159,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="EEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="EEEEEE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -141,12 +193,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -155,6 +225,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -522,7 +607,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E336FB6-013E-4F51-BC45-7961CC177181}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
@@ -530,11 +615,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.0" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="17.796875" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="14.796875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="26.06640625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="31.46484375" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.796875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.796875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="26.06640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="31.46484375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -552,7 +637,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45" ht="42.75" customHeight="true">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45" ht="28.5" customHeight="true">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -565,7 +650,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45" ht="42.75" customHeight="true">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45" ht="28.5" customHeight="true">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -578,7 +663,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4">
+    <row r="4" ht="28.5" customHeight="true">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -592,6 +677,23 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" ht="28.5" customHeight="true">
+      <c r="A5" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s" s="8">
         <v>11</v>
       </c>
     </row>

--- a/JavaApplication19/src/excel/CRM.xlsx
+++ b/JavaApplication19/src/excel/CRM.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>UBICACIÓN</t>
   </si>
@@ -79,6 +79,18 @@
   </si>
   <si>
     <t>parral</t>
+  </si>
+  <si>
+    <t>Erick Rodriguez</t>
+  </si>
+  <si>
+    <t>6271119923</t>
+  </si>
+  <si>
+    <t>erickrody02</t>
+  </si>
+  <si>
+    <t>Parral</t>
   </si>
 </sst>
 </file>
@@ -86,7 +98,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +121,36 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -216,7 +258,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -240,6 +282,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -607,7 +664,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E336FB6-013E-4F51-BC45-7961CC177181}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
@@ -697,6 +754,23 @@
         <v>11</v>
       </c>
     </row>
+    <row r="6" ht="28.5" customHeight="true">
+      <c r="A6" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s" s="10">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s" s="11">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s" s="12">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s" s="13">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/JavaApplication19/src/excel/CRM.xlsx
+++ b/JavaApplication19/src/excel/CRM.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>UBICACIÓN</t>
   </si>
@@ -91,6 +91,15 @@
   </si>
   <si>
     <t>Parral</t>
+  </si>
+  <si>
+    <t>alex2</t>
+  </si>
+  <si>
+    <t>2314</t>
+  </si>
+  <si>
+    <t>coreo</t>
   </si>
 </sst>
 </file>
@@ -98,7 +107,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +130,36 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -258,7 +297,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -297,6 +336,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -664,7 +718,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E336FB6-013E-4F51-BC45-7961CC177181}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
@@ -771,6 +825,23 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" ht="28.5" customHeight="true">
+      <c r="A7" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s" s="15">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s" s="16">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s" s="17">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s" s="18">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/JavaApplication19/src/excel/CRM.xlsx
+++ b/JavaApplication19/src/excel/CRM.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>UBICACIÓN</t>
   </si>
@@ -100,6 +100,42 @@
   </si>
   <si>
     <t>coreo</t>
+  </si>
+  <si>
+    <t>Juan Chavez</t>
+  </si>
+  <si>
+    <t>627898425</t>
+  </si>
+  <si>
+    <t>eijsjkslajA</t>
+  </si>
+  <si>
+    <t>JDLKSJKLajsklA</t>
+  </si>
+  <si>
+    <t>Mario</t>
+  </si>
+  <si>
+    <t>62785952052</t>
+  </si>
+  <si>
+    <t>mario@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parral, Chih. </t>
+  </si>
+  <si>
+    <t>AHsjahsaa</t>
+  </si>
+  <si>
+    <t>hdaksjaksja</t>
+  </si>
+  <si>
+    <t>akjdajskajskajsa</t>
+  </si>
+  <si>
+    <t>ajskajskajskajsa</t>
   </si>
 </sst>
 </file>
@@ -107,7 +143,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +166,96 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -297,7 +423,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -351,6 +477,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -718,7 +889,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E336FB6-013E-4F51-BC45-7961CC177181}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
@@ -842,6 +1013,57 @@
         <v>11</v>
       </c>
     </row>
+    <row r="8" ht="28.5" customHeight="true">
+      <c r="A8" t="s" s="19">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s" s="20">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s" s="21">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s" s="22">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s" s="23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" ht="28.5" customHeight="true">
+      <c r="A9" t="s" s="24">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s" s="25">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s" s="26">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s" s="27">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s" s="28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" ht="28.5" customHeight="true">
+      <c r="A10" t="s" s="29">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s" s="30">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s" s="31">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s" s="32">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s" s="33">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/JavaApplication19/src/excel/CRM.xlsx
+++ b/JavaApplication19/src/excel/CRM.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>UBICACIÓN</t>
   </si>
@@ -136,6 +136,24 @@
   </si>
   <si>
     <t>ajskajskajskajsa</t>
+  </si>
+  <si>
+    <t>RECONOCIBLE</t>
+  </si>
+  <si>
+    <t>123445</t>
+  </si>
+  <si>
+    <t>RECONOCIBLE 2</t>
+  </si>
+  <si>
+    <t>123456789</t>
+  </si>
+  <si>
+    <t>CORREO@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>PARRAL</t>
   </si>
 </sst>
 </file>
@@ -143,7 +161,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +184,66 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -423,7 +501,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -522,6 +600,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -889,7 +997,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E336FB6-013E-4F51-BC45-7961CC177181}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
@@ -1064,6 +1172,40 @@
         <v>11</v>
       </c>
     </row>
+    <row r="11" ht="28.5" customHeight="true">
+      <c r="A11" t="s" s="34">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s" s="35">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s" s="36">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s" s="37">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s" s="38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" ht="28.5" customHeight="true">
+      <c r="A12" t="s" s="39">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s" s="40">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s" s="41">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s" s="42">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s" s="43">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/JavaApplication19/src/excel/CRM.xlsx
+++ b/JavaApplication19/src/excel/CRM.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55506DFE-E9D3-4E18-B3E5-1FD89B3393C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D447C1CA-05C7-48E8-827B-E00283DE7E71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0F05C854-3B11-4A54-A23A-5F8640A13B2A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{0F05C854-3B11-4A54-A23A-5F8640A13B2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Clientes" sheetId="1" r:id="rId1"/>
@@ -18,21 +18,15 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>UBICACIÓN</t>
   </si>
@@ -56,13 +50,44 @@
   </si>
   <si>
     <t>HISTORIAL DE COMPRAS</t>
+  </si>
+  <si>
+    <t>Paco</t>
+  </si>
+  <si>
+    <t>jaslasj</t>
+  </si>
+  <si>
+    <t>kajsakjsa</t>
+  </si>
+  <si>
+    <t>kajskjaksja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juanito </t>
+  </si>
+  <si>
+    <t>asjasja</t>
+  </si>
+  <si>
+    <t>kajskajsa</t>
+  </si>
+  <si>
+    <t>kajskajskja</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,8 +111,68 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,8 +190,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="EEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="EEEEEE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -129,12 +224,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -143,6 +256,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -510,16 +653,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF88BFBD-5212-4B86-8C87-DFFC23B6C3D0}">
-  <dimension ref="A1:E200"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:E200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="40.6640625" customWidth="1"/>
+    <col min="1" max="5" customWidth="true" width="40.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -537,7 +680,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -550,7 +693,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -563,203 +706,40 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" ht="28.8" customHeight="true">
+      <c r="A4" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s" s="5">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" ht="28.8" customHeight="true">
+      <c r="A5" t="s" s="9">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s" s="13">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -770,7 +750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4065BCC9-2F74-4BA8-9585-C2AC8C0D8B36}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/JavaApplication19/src/excel/CRM.xlsx
+++ b/JavaApplication19/src/excel/CRM.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>UBICACIÓN</t>
   </si>
@@ -80,6 +80,30 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>ALETS</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>CORREO</t>
+  </si>
+  <si>
+    <t>ARANCHO</t>
+  </si>
+  <si>
+    <t>FERNANDO</t>
+  </si>
+  <si>
+    <t>1234567</t>
+  </si>
+  <si>
+    <t>FERNANDO@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>CHIHUAHA</t>
   </si>
 </sst>
 </file>
@@ -87,7 +111,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +134,66 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -247,7 +331,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -286,6 +370,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -653,7 +767,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF88BFBD-5212-4B86-8C87-DFFC23B6C3D0}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -737,6 +851,40 @@
         <v>16</v>
       </c>
       <c r="E5" t="s" s="13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" ht="28.8" customHeight="true">
+      <c r="A6" t="s" s="14">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s" s="15">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s" s="16">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s" s="17">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s" s="18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" ht="28.8" customHeight="true">
+      <c r="A7" t="s" s="19">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s" s="20">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s" s="21">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s" s="22">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s" s="23">
         <v>17</v>
       </c>
     </row>

--- a/JavaApplication19/src/excel/CRM.xlsx
+++ b/JavaApplication19/src/excel/CRM.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>UBICACIÓN</t>
   </si>
@@ -104,6 +104,36 @@
   </si>
   <si>
     <t>CHIHUAHA</t>
+  </si>
+  <si>
+    <t>ALEX BACA</t>
+  </si>
+  <si>
+    <t>6271310248</t>
+  </si>
+  <si>
+    <t>ALLISBAS@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>CHIHUAHUA</t>
+  </si>
+  <si>
+    <t>ERICK IVAN</t>
+  </si>
+  <si>
+    <t>728913</t>
+  </si>
+  <si>
+    <t>PARRAL</t>
+  </si>
+  <si>
+    <t>ALEXIS NAVARRO</t>
+  </si>
+  <si>
+    <t>3456789</t>
+  </si>
+  <si>
+    <t>ALEXIS@YOUTUBE.COM</t>
   </si>
 </sst>
 </file>
@@ -111,7 +141,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +164,96 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -331,7 +451,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -400,6 +520,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -767,7 +932,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF88BFBD-5212-4B86-8C87-DFFC23B6C3D0}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -886,6 +1051,57 @@
       </c>
       <c r="E7" t="s" s="23">
         <v>17</v>
+      </c>
+    </row>
+    <row r="8" ht="28.8" customHeight="true">
+      <c r="A8" t="s" s="24">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s" s="25">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s" s="26">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s" s="27">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s" s="28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" ht="28.8" customHeight="true">
+      <c r="A9" t="s" s="29">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s" s="30">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s" s="31">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s" s="32">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s" s="33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" ht="28.8" customHeight="true">
+      <c r="A10" t="s" s="34">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s" s="35">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s" s="36">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s" s="37">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s" s="38">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/JavaApplication19/src/excel/CRM.xlsx
+++ b/JavaApplication19/src/excel/CRM.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
   <si>
     <t>UBICACIÓN</t>
   </si>
@@ -134,6 +134,39 @@
   </si>
   <si>
     <t>ALEXIS@YOUTUBE.COM</t>
+  </si>
+  <si>
+    <t>FRANCISCO BENCOMO</t>
+  </si>
+  <si>
+    <t>625363494</t>
+  </si>
+  <si>
+    <t>NOSE</t>
+  </si>
+  <si>
+    <t>CUAHUTEMOC</t>
+  </si>
+  <si>
+    <t>franciasco chavez</t>
+  </si>
+  <si>
+    <t>8900432</t>
+  </si>
+  <si>
+    <t>franciasco@hotmail.com</t>
+  </si>
+  <si>
+    <t>parral</t>
+  </si>
+  <si>
+    <t>ARIEL SANDOVAL</t>
+  </si>
+  <si>
+    <t>345678223</t>
+  </si>
+  <si>
+    <t>ARIELCORROOE</t>
   </si>
 </sst>
 </file>
@@ -141,7 +174,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="53" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +197,96 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -451,7 +574,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -565,6 +688,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -932,7 +1100,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF88BFBD-5212-4B86-8C87-DFFC23B6C3D0}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1102,6 +1270,57 @@
       </c>
       <c r="E10" t="s" s="38">
         <v>12</v>
+      </c>
+    </row>
+    <row r="11" ht="28.8" customHeight="true">
+      <c r="A11" t="s" s="39">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s" s="40">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s" s="41">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s" s="42">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s" s="43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" ht="28.8" customHeight="true">
+      <c r="A12" t="s" s="44">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s" s="45">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s" s="46">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s" s="47">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s" s="48">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" ht="28.8" customHeight="true">
+      <c r="A13" t="s" s="49">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s" s="50">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s" s="51">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s" s="52">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s" s="53">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/JavaApplication19/src/excel/CRM.xlsx
+++ b/JavaApplication19/src/excel/CRM.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="69">
   <si>
     <t>UBICACIÓN</t>
   </si>
@@ -167,6 +167,72 @@
   </si>
   <si>
     <t>ARIELCORROOE</t>
+  </si>
+  <si>
+    <t>hola</t>
+  </si>
+  <si>
+    <t>122423</t>
+  </si>
+  <si>
+    <t>wsq</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>EL CHIQUETE</t>
+  </si>
+  <si>
+    <t>12321</t>
+  </si>
+  <si>
+    <t>HOLI</t>
+  </si>
+  <si>
+    <t>SAD</t>
+  </si>
+  <si>
+    <t>ELNUEVO</t>
+  </si>
+  <si>
+    <t>43242</t>
+  </si>
+  <si>
+    <t>ASD</t>
+  </si>
+  <si>
+    <t>JIJO DELA BURGUER</t>
+  </si>
+  <si>
+    <t>21321</t>
+  </si>
+  <si>
+    <t>FRENCH</t>
+  </si>
+  <si>
+    <t>AFSDS</t>
+  </si>
+  <si>
+    <t>FUNDAS</t>
+  </si>
+  <si>
+    <t>1231243</t>
+  </si>
+  <si>
+    <t>CORREOS</t>
+  </si>
+  <si>
+    <t>olaaaaaa</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>parralito</t>
   </si>
 </sst>
 </file>
@@ -174,7 +240,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="53" x14ac:knownFonts="1">
+  <fonts count="83" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +263,186 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -574,7 +820,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -733,6 +979,96 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1100,7 +1436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF88BFBD-5212-4B86-8C87-DFFC23B6C3D0}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1321,6 +1657,108 @@
       </c>
       <c r="E13" t="s" s="53">
         <v>17</v>
+      </c>
+    </row>
+    <row r="14" ht="28.8" customHeight="true">
+      <c r="A14" t="s" s="54">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s" s="55">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s" s="56">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s" s="57">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s" s="58">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" ht="28.8" customHeight="true">
+      <c r="A15" t="s" s="59">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s" s="60">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s" s="61">
+        <v>53</v>
+      </c>
+      <c r="D15" t="s" s="62">
+        <v>54</v>
+      </c>
+      <c r="E15" t="s" s="63">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" ht="28.8" customHeight="true">
+      <c r="A16" t="s" s="64">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s" s="65">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s" s="66">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s" s="67">
+        <v>57</v>
+      </c>
+      <c r="E16" t="s" s="68">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" ht="28.8" customHeight="true">
+      <c r="A17" t="s" s="69">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s" s="70">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s" s="71">
+        <v>60</v>
+      </c>
+      <c r="D17" t="s" s="72">
+        <v>61</v>
+      </c>
+      <c r="E17" t="s" s="73">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" ht="28.8" customHeight="true">
+      <c r="A18" t="s" s="74">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s" s="75">
+        <v>63</v>
+      </c>
+      <c r="C18" t="s" s="76">
+        <v>64</v>
+      </c>
+      <c r="D18" t="s" s="77">
+        <v>32</v>
+      </c>
+      <c r="E18" t="s" s="78">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" ht="28.8" customHeight="true">
+      <c r="A19" t="s" s="79">
+        <v>65</v>
+      </c>
+      <c r="B19" t="s" s="80">
+        <v>66</v>
+      </c>
+      <c r="C19" t="s" s="81">
+        <v>67</v>
+      </c>
+      <c r="D19" t="s" s="82">
+        <v>68</v>
+      </c>
+      <c r="E19" t="s" s="83">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/JavaApplication19/src/excel/CRM.xlsx
+++ b/JavaApplication19/src/excel/CRM.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="73">
   <si>
     <t>UBICACIÓN</t>
   </si>
@@ -233,6 +233,18 @@
   </si>
   <si>
     <t>parralito</t>
+  </si>
+  <si>
+    <t>NUEVO DOCU</t>
+  </si>
+  <si>
+    <t>123312</t>
+  </si>
+  <si>
+    <t>ADSAD</t>
+  </si>
+  <si>
+    <t>ADSAS</t>
   </si>
 </sst>
 </file>
@@ -240,7 +252,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="83" x14ac:knownFonts="1">
+  <fonts count="88" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +275,36 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -820,7 +862,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1069,6 +1111,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="82" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1436,7 +1493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF88BFBD-5212-4B86-8C87-DFFC23B6C3D0}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1758,6 +1815,23 @@
         <v>68</v>
       </c>
       <c r="E19" t="s" s="83">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" ht="28.8" customHeight="true">
+      <c r="A20" t="s" s="84">
+        <v>69</v>
+      </c>
+      <c r="B20" t="s" s="85">
+        <v>70</v>
+      </c>
+      <c r="C20" t="s" s="86">
+        <v>71</v>
+      </c>
+      <c r="D20" t="s" s="87">
+        <v>72</v>
+      </c>
+      <c r="E20" t="s" s="88">
         <v>12</v>
       </c>
     </row>

--- a/JavaApplication19/src/excel/CRM.xlsx
+++ b/JavaApplication19/src/excel/CRM.xlsx
@@ -15,6 +15,10 @@
   <sheets>
     <sheet name="Clientes" sheetId="1" r:id="rId1"/>
     <sheet name="CLIENTES FRECUENTES (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="PACO CHAVEZ" r:id="rId6" sheetId="3"/>
+    <sheet name="IBAN" r:id="rId7" sheetId="4"/>
+    <sheet name="ARIEL SANDOVAL" r:id="rId8" sheetId="5"/>
+    <sheet name="HIPERVINCULO" r:id="rId9" sheetId="6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="126">
   <si>
     <t>UBICACIÓN</t>
   </si>
@@ -245,14 +249,175 @@
   </si>
   <si>
     <t>ADSAS</t>
+  </si>
+  <si>
+    <t>NUEVO</t>
+  </si>
+  <si>
+    <t>12312</t>
+  </si>
+  <si>
+    <t>QWAD</t>
+  </si>
+  <si>
+    <t>ADSDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
+  </si>
+  <si>
+    <t>DESCRIPCIÓN</t>
+  </si>
+  <si>
+    <t>FECHA DE REGISTRO</t>
+  </si>
+  <si>
+    <t>CONDICION</t>
+  </si>
+  <si>
+    <t>PACK</t>
+  </si>
+  <si>
+    <t>T.I.G</t>
+  </si>
+  <si>
+    <t>UNIDADES</t>
+  </si>
+  <si>
+    <t>COSTO X UNIDAD</t>
+  </si>
+  <si>
+    <t>COSTO NETO</t>
+  </si>
+  <si>
+    <t>PRECIO BASE X UNIDAD</t>
+  </si>
+  <si>
+    <t>PRECIO BASE NETO</t>
+  </si>
+  <si>
+    <t>PRECIO SHOP X UNIDAD</t>
+  </si>
+  <si>
+    <t>PRECIO SHOP NETO</t>
+  </si>
+  <si>
+    <t>PRECIO ML X UNIDAD</t>
+  </si>
+  <si>
+    <t>PRECIO ML NETO</t>
+  </si>
+  <si>
+    <t>COMISION ML X UNIDAD</t>
+  </si>
+  <si>
+    <t>COMISION ML NETA</t>
+  </si>
+  <si>
+    <t>IVA X UNIDAD</t>
+  </si>
+  <si>
+    <t>IVA NETA</t>
+  </si>
+  <si>
+    <t>UTILIDAD X UNIDAD</t>
+  </si>
+  <si>
+    <t>UTILIDAD NETA</t>
+  </si>
+  <si>
+    <t>MEDIO DE VENTA</t>
+  </si>
+  <si>
+    <t>DESTINO</t>
+  </si>
+  <si>
+    <t>FOLIO</t>
+  </si>
+  <si>
+    <t>BUFF</t>
+  </si>
+  <si>
+    <t>BANDANA MULTIFUNCIONAL - VARIOS MODELOS Y COLORES - ABSORBENTE - FACIL DE LAVAR - NUEVOS</t>
+  </si>
+  <si>
+    <t>14  AGOSTO</t>
+  </si>
+  <si>
+    <t>2.2222222222222223</t>
+  </si>
+  <si>
+    <t>27.0</t>
+  </si>
+  <si>
+    <t>60.0</t>
+  </si>
+  <si>
+    <t>Mercado Libre</t>
+  </si>
+  <si>
+    <t>agosto</t>
+  </si>
+  <si>
+    <t>IBAN</t>
+  </si>
+  <si>
+    <t>321412</t>
+  </si>
+  <si>
+    <t>CORREON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">efraain </t>
+  </si>
+  <si>
+    <t>32423</t>
+  </si>
+  <si>
+    <t>aaddas</t>
+  </si>
+  <si>
+    <t>asda</t>
+  </si>
+  <si>
+    <t>HIPERVINCULO</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>SDA</t>
+  </si>
+  <si>
+    <t>DSASD</t>
+  </si>
+  <si>
+    <t>=HIPERVINCULO("[historialCompras.xlsx]FRANCISCO BENCOMO!A1", "Ir a Hoja3")</t>
+  </si>
+  <si>
+    <t>DODO</t>
+  </si>
+  <si>
+    <t>243432</t>
+  </si>
+  <si>
+    <t>DASSDAS</t>
+  </si>
+  <si>
+    <t>ASDASDA</t>
+  </si>
+  <si>
+    <t>=HIPERVINCULO("[historialCompras.xlsx]'DODO'! A1 "," IR A HISTORIAL")</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="88" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="$#,#0.00"/>
+  </numFmts>
+  <fonts count="820" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -786,8 +951,4400 @@
       <color indexed="8"/>
       <b val="true"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="1.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="1.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="1.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="1.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="1.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="1.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="1.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="1.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="1.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="1.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="1.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -813,6 +5370,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="EEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="03DF7B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="03DF7B"/>
       </patternFill>
     </fill>
   </fills>
@@ -862,7 +5429,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="821">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1126,6 +5693,2202 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="87" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="93" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="94" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="96" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="97" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="99" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="100" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="102" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="103" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="105" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="106" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="108" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="109" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="111" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="112" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="114" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="115" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="117" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="118" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="120" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="121" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="123" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="124" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="126" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="127" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="129" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="130" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="132" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="133" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="135" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="136" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="138" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="139" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="141" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="142" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="144" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="145" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="147" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="148" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="150" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="151" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="153" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="154" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="156" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="157" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="159" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="160" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="162" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="163" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="177" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="178" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="179" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="180" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="181" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="182" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="183" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="184" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="185" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="186" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="187" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="188" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="189" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="190" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="191" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="192" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="193" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="194" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="195" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="196" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="197" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="198" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="214" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="215" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="216" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="217" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="218" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="219" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="220" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="221" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="222" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="223" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="224" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="225" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="226" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="227" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="228" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="229" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="230" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="231" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="232" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="233" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="234" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="235" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="251" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="252" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="253" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="254" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="255" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="256" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="257" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="258" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="259" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="260" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="261" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="262" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="263" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="264" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="265" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="266" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="267" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="268" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="269" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="270" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="271" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="272" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="288" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="289" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="290" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="291" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="292" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="293" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="294" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="295" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="296" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="297" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="298" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="299" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="300" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="301" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="302" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="303" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="304" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="305" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="306" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="307" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="308" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="309" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="325" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="326" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="327" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="328" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="329" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="330" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="331" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="332" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="333" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="334" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="335" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="336" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="337" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="338" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="339" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="340" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="341" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="342" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="343" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="344" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="345" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="346" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="362" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="363" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="364" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="365" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="366" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="367" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="368" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="369" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="370" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="371" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="372" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="373" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="374" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="375" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="376" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="377" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="378" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="379" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="380" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="381" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="382" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="383" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="387" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="388" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="389" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="390" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="391" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="392" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="393" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="397" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="398" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="399" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="400" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="401" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="402" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="403" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="404" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="405" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="406" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="407" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="408" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="409" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="410" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="411" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="412" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="413" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="414" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="415" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="416" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="417" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="418" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="419" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="420" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="421" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="422" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="423" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="424" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="425" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="426" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="427" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="428" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="429" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="430" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="431" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="432" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="433" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="434" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="435" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="436" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="437" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="438" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="439" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="440" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="441" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="442" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="443" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="444" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="445" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="446" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="447" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="448" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="449" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="450" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="451" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="452" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="453" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="454" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="455" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="456" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="457" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="458" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="459" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="460" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="461" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="462" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="463" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="464" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="465" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="466" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="467" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="468" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="469" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="470" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="471" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="472" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="473" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="474" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="475" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="476" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="477" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="478" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="479" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="480" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="481" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="482" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="483" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="484" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="485" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="486" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="487" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="488" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="489" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="490" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="491" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="492" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="493" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="494" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="495" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="496" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="497" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="498" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="499" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="500" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="501" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="502" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="503" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="504" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="505" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="506" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="507" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="508" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="509" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="510" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="511" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="512" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="513" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="514" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="515" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="516" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="517" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="518" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="519" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="520" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="521" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="522" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="523" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="524" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="525" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="526" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="527" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="528" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="529" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="530" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="531" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="532" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="533" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="534" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="535" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="536" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="537" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="538" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="539" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="540" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="541" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="542" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="543" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="544" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="545" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="546" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="547" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="548" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="549" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="550" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="551" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="552" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="553" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="554" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="555" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="556" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="557" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="558" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="559" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="560" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="561" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="562" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="563" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="564" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="565" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="566" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="567" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="568" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="569" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="570" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="571" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="572" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="573" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="574" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="575" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="576" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="577" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="578" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="579" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="580" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="581" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="582" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="583" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="584" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="585" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="586" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="587" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="588" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="589" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="590" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="591" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="592" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="593" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="594" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="595" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="596" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="597" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="598" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="599" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="600" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="601" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="602" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="603" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="604" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="605" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="606" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="607" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="608" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="609" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="610" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="611" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="612" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="613" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="614" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="615" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="616" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="617" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="618" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="619" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="620" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="621" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="622" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="623" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="624" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="625" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="626" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="627" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="628" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="629" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="630" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="631" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="632" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="633" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="634" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="635" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="636" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="637" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="638" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="639" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="640" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="641" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="642" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="643" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="644" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="645" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="646" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="647" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="648" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="649" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="650" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="651" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="652" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="653" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="654" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="655" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="656" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="657" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="658" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="659" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="660" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="661" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="662" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="663" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="664" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="665" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="666" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="667" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="668" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="669" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="670" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="671" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="672" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="673" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="674" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="675" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="676" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="677" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="678" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="679" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="680" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="681" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="682" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="683" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="684" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="685" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="686" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="687" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="688" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="689" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="690" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="691" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="692" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="693" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="694" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="695" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="696" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="697" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="698" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="699" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="700" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="701" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="702" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="703" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="704" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="705" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="706" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="707" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="708" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="709" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="710" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="711" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="712" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="713" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="714" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="715" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="716" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="717" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="718" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="719" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="720" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="721" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="722" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="723" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="724" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="725" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="726" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="727" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="728" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="729" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="730" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="731" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="732" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="733" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="734" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="735" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="736" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="737" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="738" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="739" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="740" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="741" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="742" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="743" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="744" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="745" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="746" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="747" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="748" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="749" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="750" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="751" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="752" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="753" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="754" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="755" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="756" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="757" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="758" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="759" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="760" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="761" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="762" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="763" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="764" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="765" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="766" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="767" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="768" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="769" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="770" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="771" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="772" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="773" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="774" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="775" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="776" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="777" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="778" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="779" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="780" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="781" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="782" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="783" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="784" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="785" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="786" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="787" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="788" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="789" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="790" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="791" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="792" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="793" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="794" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="795" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="796" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="797" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="798" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="799" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="800" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="801" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="802" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="803" fillId="5" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="804" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="805" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="806" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="807" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="808" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="809" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="810" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="811" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="812" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="813" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="814" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="815" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="816" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="817" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="818" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="819" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1493,7 +8256,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF88BFBD-5212-4B86-8C87-DFFC23B6C3D0}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1833,6 +8596,108 @@
       </c>
       <c r="E20" t="s" s="88">
         <v>12</v>
+      </c>
+    </row>
+    <row r="21" ht="28.8" customHeight="true">
+      <c r="A21" t="s" s="89">
+        <v>73</v>
+      </c>
+      <c r="B21" t="s" s="90">
+        <v>74</v>
+      </c>
+      <c r="C21" t="s" s="91">
+        <v>75</v>
+      </c>
+      <c r="D21" t="s" s="92">
+        <v>76</v>
+      </c>
+      <c r="E21" t="s" s="93">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" ht="28.8" customHeight="true">
+      <c r="A22" t="s" s="426">
+        <v>109</v>
+      </c>
+      <c r="B22" t="s" s="427">
+        <v>110</v>
+      </c>
+      <c r="C22" t="s" s="428">
+        <v>111</v>
+      </c>
+      <c r="D22" t="s" s="429">
+        <v>32</v>
+      </c>
+      <c r="E22" t="s" s="430">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" ht="28.8" customHeight="true">
+      <c r="A23" t="s" s="651">
+        <v>112</v>
+      </c>
+      <c r="B23" t="s" s="652">
+        <v>113</v>
+      </c>
+      <c r="C23" t="s" s="653">
+        <v>114</v>
+      </c>
+      <c r="D23" t="s" s="654">
+        <v>115</v>
+      </c>
+      <c r="E23" t="s" s="655">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" ht="28.8" customHeight="true">
+      <c r="A24" t="s" s="656">
+        <v>112</v>
+      </c>
+      <c r="B24" t="s" s="657">
+        <v>113</v>
+      </c>
+      <c r="C24" t="s" s="658">
+        <v>114</v>
+      </c>
+      <c r="D24" t="s" s="659">
+        <v>115</v>
+      </c>
+      <c r="E24" t="s" s="660">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" ht="28.8" customHeight="true">
+      <c r="A25" t="s" s="699">
+        <v>116</v>
+      </c>
+      <c r="B25" t="s" s="700">
+        <v>117</v>
+      </c>
+      <c r="C25" t="s" s="701">
+        <v>118</v>
+      </c>
+      <c r="D25" t="s" s="702">
+        <v>119</v>
+      </c>
+      <c r="E25" t="s" s="704">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" ht="28.8" customHeight="true">
+      <c r="A26" t="s" s="815">
+        <v>121</v>
+      </c>
+      <c r="B26" t="s" s="816">
+        <v>122</v>
+      </c>
+      <c r="C26" t="s" s="817">
+        <v>123</v>
+      </c>
+      <c r="D26" t="s" s="818">
+        <v>124</v>
+      </c>
+      <c r="E26" t="s" s="820">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1853,4 +8718,1458 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:X10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="58.59375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="58.59375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="19.53125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="96" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="99" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="105" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="108" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="111" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="114" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="117" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="120" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="123" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" s="126" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" s="129" t="s">
+        <v>88</v>
+      </c>
+      <c r="M1" s="132" t="s">
+        <v>89</v>
+      </c>
+      <c r="N1" s="135" t="s">
+        <v>90</v>
+      </c>
+      <c r="O1" s="138" t="s">
+        <v>91</v>
+      </c>
+      <c r="P1" s="141" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q1" s="144" t="s">
+        <v>93</v>
+      </c>
+      <c r="R1" s="147" t="s">
+        <v>94</v>
+      </c>
+      <c r="S1" s="150" t="s">
+        <v>95</v>
+      </c>
+      <c r="T1" s="153" t="s">
+        <v>96</v>
+      </c>
+      <c r="U1" s="156" t="s">
+        <v>97</v>
+      </c>
+      <c r="V1" s="159" t="s">
+        <v>98</v>
+      </c>
+      <c r="W1" s="162" t="s">
+        <v>99</v>
+      </c>
+      <c r="X1" s="165" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="166">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s" s="176">
+        <v>102</v>
+      </c>
+      <c r="C2" t="s" s="168">
+        <v>103</v>
+      </c>
+      <c r="D2" t="s" s="169">
+        <v>73</v>
+      </c>
+      <c r="E2" t="s" s="170">
+        <v>17</v>
+      </c>
+      <c r="F2" t="n" s="181">
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="G2" t="n" s="177">
+        <v>1.0</v>
+      </c>
+      <c r="H2" t="n" s="178">
+        <v>27.0</v>
+      </c>
+      <c r="I2" t="n" s="179">
+        <v>27.0</v>
+      </c>
+      <c r="J2" t="n" s="180">
+        <v>60.0</v>
+      </c>
+      <c r="K2" t="n" s="182">
+        <v>60.0</v>
+      </c>
+      <c r="L2" t="n" s="183">
+        <v>69.6</v>
+      </c>
+      <c r="M2" t="n" s="184">
+        <v>13363.199999999999</v>
+      </c>
+      <c r="N2" t="n" s="185">
+        <v>120.03999999999999</v>
+      </c>
+      <c r="O2" t="n" s="186">
+        <v>23047.68</v>
+      </c>
+      <c r="P2" t="n" s="187">
+        <v>15.44</v>
+      </c>
+      <c r="Q2" t="n" s="188">
+        <v>2964.48</v>
+      </c>
+      <c r="R2" t="n" s="189">
+        <v>9.6</v>
+      </c>
+      <c r="S2" t="n" s="190">
+        <v>9.6</v>
+      </c>
+      <c r="T2" t="n" s="191">
+        <v>32.99999999999999</v>
+      </c>
+      <c r="U2" t="n" s="192">
+        <v>6335.999999999998</v>
+      </c>
+      <c r="V2" t="s" s="200">
+        <v>107</v>
+      </c>
+      <c r="W2" t="s" s="201">
+        <v>4</v>
+      </c>
+      <c r="X2" t="n" s="202">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" t="s" s="203">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s" s="213">
+        <v>102</v>
+      </c>
+      <c r="C3" t="s" s="205">
+        <v>108</v>
+      </c>
+      <c r="D3" t="s" s="206">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s" s="207">
+        <v>17</v>
+      </c>
+      <c r="F3" t="n" s="218">
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="G3" t="n" s="214">
+        <v>1.0</v>
+      </c>
+      <c r="H3" t="n" s="215">
+        <v>27.0</v>
+      </c>
+      <c r="I3" t="n" s="216">
+        <v>27.0</v>
+      </c>
+      <c r="J3" t="n" s="217">
+        <v>60.0</v>
+      </c>
+      <c r="K3" t="n" s="219">
+        <v>60.0</v>
+      </c>
+      <c r="L3" t="n" s="220">
+        <v>69.6</v>
+      </c>
+      <c r="M3" t="n" s="221">
+        <v>13293.599999999999</v>
+      </c>
+      <c r="N3" t="n" s="222">
+        <v>120.03999999999999</v>
+      </c>
+      <c r="O3" t="n" s="223">
+        <v>22927.64</v>
+      </c>
+      <c r="P3" t="n" s="224">
+        <v>15.44</v>
+      </c>
+      <c r="Q3" t="n" s="225">
+        <v>2949.04</v>
+      </c>
+      <c r="R3" t="n" s="226">
+        <v>9.6</v>
+      </c>
+      <c r="S3" t="n" s="227">
+        <v>9.6</v>
+      </c>
+      <c r="T3" t="n" s="228">
+        <v>32.99999999999999</v>
+      </c>
+      <c r="U3" t="n" s="229">
+        <v>6302.999999999999</v>
+      </c>
+      <c r="V3" t="s" s="237">
+        <v>107</v>
+      </c>
+      <c r="W3" t="s" s="238">
+        <v>4</v>
+      </c>
+      <c r="X3" t="n" s="239">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4" ht="30.0" customHeight="true">
+      <c r="A4" t="s" s="240">
+        <v>101</v>
+      </c>
+      <c r="B4" t="s" s="250">
+        <v>102</v>
+      </c>
+      <c r="C4" t="s" s="242">
+        <v>108</v>
+      </c>
+      <c r="D4" t="s" s="243">
+        <v>73</v>
+      </c>
+      <c r="E4" t="s" s="244">
+        <v>17</v>
+      </c>
+      <c r="F4" t="n" s="255">
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="G4" t="n" s="251">
+        <v>1.0</v>
+      </c>
+      <c r="H4" t="n" s="252">
+        <v>27.0</v>
+      </c>
+      <c r="I4" t="n" s="253">
+        <v>27.0</v>
+      </c>
+      <c r="J4" t="n" s="254">
+        <v>60.0</v>
+      </c>
+      <c r="K4" t="n" s="256">
+        <v>60.0</v>
+      </c>
+      <c r="L4" t="n" s="257">
+        <v>69.6</v>
+      </c>
+      <c r="M4" t="n" s="258">
+        <v>13223.999999999998</v>
+      </c>
+      <c r="N4" t="n" s="259">
+        <v>120.03999999999999</v>
+      </c>
+      <c r="O4" t="n" s="260">
+        <v>22807.6</v>
+      </c>
+      <c r="P4" t="n" s="261">
+        <v>15.44</v>
+      </c>
+      <c r="Q4" t="n" s="262">
+        <v>2933.6</v>
+      </c>
+      <c r="R4" t="n" s="263">
+        <v>9.6</v>
+      </c>
+      <c r="S4" t="n" s="264">
+        <v>9.6</v>
+      </c>
+      <c r="T4" t="n" s="265">
+        <v>32.99999999999999</v>
+      </c>
+      <c r="U4" t="n" s="266">
+        <v>6269.999999999999</v>
+      </c>
+      <c r="V4" t="s" s="274">
+        <v>107</v>
+      </c>
+      <c r="W4" t="s" s="275">
+        <v>4</v>
+      </c>
+      <c r="X4" t="n" s="276">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="5" ht="30.0" customHeight="true">
+      <c r="A5" t="s" s="277">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s" s="287">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s" s="279">
+        <v>108</v>
+      </c>
+      <c r="D5" t="s" s="280">
+        <v>73</v>
+      </c>
+      <c r="E5" t="s" s="281">
+        <v>17</v>
+      </c>
+      <c r="F5" t="n" s="292">
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="G5" t="n" s="288">
+        <v>1.0</v>
+      </c>
+      <c r="H5" t="n" s="289">
+        <v>27.0</v>
+      </c>
+      <c r="I5" t="n" s="290">
+        <v>27.0</v>
+      </c>
+      <c r="J5" t="n" s="291">
+        <v>60.0</v>
+      </c>
+      <c r="K5" t="n" s="293">
+        <v>60.0</v>
+      </c>
+      <c r="L5" t="n" s="294">
+        <v>69.6</v>
+      </c>
+      <c r="M5" t="n" s="295">
+        <v>13154.4</v>
+      </c>
+      <c r="N5" t="n" s="296">
+        <v>120.03999999999999</v>
+      </c>
+      <c r="O5" t="n" s="297">
+        <v>22687.559999999998</v>
+      </c>
+      <c r="P5" t="n" s="298">
+        <v>15.44</v>
+      </c>
+      <c r="Q5" t="n" s="299">
+        <v>2918.16</v>
+      </c>
+      <c r="R5" t="n" s="300">
+        <v>9.6</v>
+      </c>
+      <c r="S5" t="n" s="301">
+        <v>9.6</v>
+      </c>
+      <c r="T5" t="n" s="302">
+        <v>32.99999999999999</v>
+      </c>
+      <c r="U5" t="n" s="303">
+        <v>6236.999999999999</v>
+      </c>
+      <c r="V5" t="s" s="311">
+        <v>107</v>
+      </c>
+      <c r="W5" t="s" s="312">
+        <v>4</v>
+      </c>
+      <c r="X5" t="n" s="313">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="6" ht="30.0" customHeight="true">
+      <c r="A6" t="s" s="314">
+        <v>101</v>
+      </c>
+      <c r="B6" t="s" s="324">
+        <v>102</v>
+      </c>
+      <c r="C6" t="s" s="316">
+        <v>108</v>
+      </c>
+      <c r="D6" t="s" s="317">
+        <v>73</v>
+      </c>
+      <c r="E6" t="s" s="318">
+        <v>17</v>
+      </c>
+      <c r="F6" t="n" s="329">
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="G6" t="n" s="325">
+        <v>1.0</v>
+      </c>
+      <c r="H6" t="n" s="326">
+        <v>27.0</v>
+      </c>
+      <c r="I6" t="n" s="327">
+        <v>27.0</v>
+      </c>
+      <c r="J6" t="n" s="328">
+        <v>60.0</v>
+      </c>
+      <c r="K6" t="n" s="330">
+        <v>60.0</v>
+      </c>
+      <c r="L6" t="n" s="331">
+        <v>69.6</v>
+      </c>
+      <c r="M6" t="n" s="332">
+        <v>13084.8</v>
+      </c>
+      <c r="N6" t="n" s="333">
+        <v>120.03999999999999</v>
+      </c>
+      <c r="O6" t="n" s="334">
+        <v>22567.519999999997</v>
+      </c>
+      <c r="P6" t="n" s="335">
+        <v>15.44</v>
+      </c>
+      <c r="Q6" t="n" s="336">
+        <v>2902.72</v>
+      </c>
+      <c r="R6" t="n" s="337">
+        <v>9.6</v>
+      </c>
+      <c r="S6" t="n" s="338">
+        <v>9.6</v>
+      </c>
+      <c r="T6" t="n" s="339">
+        <v>32.99999999999999</v>
+      </c>
+      <c r="U6" t="n" s="340">
+        <v>6203.999999999999</v>
+      </c>
+      <c r="V6" t="s" s="348">
+        <v>107</v>
+      </c>
+      <c r="W6" t="s" s="349">
+        <v>4</v>
+      </c>
+      <c r="X6" t="n" s="350">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="7" ht="30.0" customHeight="true">
+      <c r="A7" t="s" s="351">
+        <v>101</v>
+      </c>
+      <c r="B7" t="s" s="361">
+        <v>102</v>
+      </c>
+      <c r="C7" t="s" s="353">
+        <v>108</v>
+      </c>
+      <c r="D7" t="s" s="354">
+        <v>73</v>
+      </c>
+      <c r="E7" t="s" s="355">
+        <v>17</v>
+      </c>
+      <c r="F7" t="n" s="366">
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="G7" t="n" s="362">
+        <v>1.0</v>
+      </c>
+      <c r="H7" t="n" s="363">
+        <v>27.0</v>
+      </c>
+      <c r="I7" t="n" s="364">
+        <v>27.0</v>
+      </c>
+      <c r="J7" t="n" s="365">
+        <v>60.0</v>
+      </c>
+      <c r="K7" t="n" s="367">
+        <v>60.0</v>
+      </c>
+      <c r="L7" t="n" s="368">
+        <v>69.6</v>
+      </c>
+      <c r="M7" t="n" s="369">
+        <v>13015.199999999999</v>
+      </c>
+      <c r="N7" t="n" s="370">
+        <v>120.03999999999999</v>
+      </c>
+      <c r="O7" t="n" s="371">
+        <v>22447.48</v>
+      </c>
+      <c r="P7" t="n" s="372">
+        <v>15.44</v>
+      </c>
+      <c r="Q7" t="n" s="373">
+        <v>2887.2799999999997</v>
+      </c>
+      <c r="R7" t="n" s="374">
+        <v>9.6</v>
+      </c>
+      <c r="S7" t="n" s="375">
+        <v>9.6</v>
+      </c>
+      <c r="T7" t="n" s="376">
+        <v>32.99999999999999</v>
+      </c>
+      <c r="U7" t="n" s="377">
+        <v>6170.999999999999</v>
+      </c>
+      <c r="V7" t="s" s="385">
+        <v>107</v>
+      </c>
+      <c r="W7" t="s" s="386">
+        <v>4</v>
+      </c>
+      <c r="X7" t="n" s="387">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="8" ht="30.0" customHeight="true">
+      <c r="A8" t="s" s="388">
+        <v>101</v>
+      </c>
+      <c r="B8" t="s" s="398">
+        <v>102</v>
+      </c>
+      <c r="C8" t="s" s="390">
+        <v>108</v>
+      </c>
+      <c r="D8" t="s" s="391">
+        <v>73</v>
+      </c>
+      <c r="E8" t="s" s="392">
+        <v>17</v>
+      </c>
+      <c r="F8" t="n" s="404">
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="G8" t="n" s="399">
+        <v>1.0</v>
+      </c>
+      <c r="H8" t="n" s="400">
+        <v>27.0</v>
+      </c>
+      <c r="I8" t="n" s="401">
+        <v>27.0</v>
+      </c>
+      <c r="J8" t="n" s="402">
+        <v>60.0</v>
+      </c>
+      <c r="K8" t="n" s="405">
+        <v>60.0</v>
+      </c>
+      <c r="L8" t="n" s="406">
+        <v>69.6</v>
+      </c>
+      <c r="M8" t="n" s="407">
+        <v>12945.599999999999</v>
+      </c>
+      <c r="N8" t="n" s="408">
+        <v>120.03999999999999</v>
+      </c>
+      <c r="O8" t="n" s="409">
+        <v>22327.44</v>
+      </c>
+      <c r="P8" t="n" s="410">
+        <v>15.44</v>
+      </c>
+      <c r="Q8" t="n" s="411">
+        <v>2871.8399999999997</v>
+      </c>
+      <c r="R8" t="n" s="412">
+        <v>9.6</v>
+      </c>
+      <c r="S8" t="n" s="413">
+        <v>9.6</v>
+      </c>
+      <c r="T8" t="n" s="414">
+        <v>32.99999999999999</v>
+      </c>
+      <c r="U8" t="n" s="415">
+        <v>6137.999999999999</v>
+      </c>
+      <c r="V8" t="s" s="423">
+        <v>107</v>
+      </c>
+      <c r="W8" t="s" s="424">
+        <v>4</v>
+      </c>
+      <c r="X8" t="n" s="425">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="9" ht="30.0" customHeight="true">
+      <c r="A9" t="s" s="661">
+        <v>101</v>
+      </c>
+      <c r="B9" t="s" s="671">
+        <v>102</v>
+      </c>
+      <c r="C9" t="s" s="663">
+        <v>108</v>
+      </c>
+      <c r="D9" t="s" s="664">
+        <v>73</v>
+      </c>
+      <c r="E9" t="s" s="665">
+        <v>17</v>
+      </c>
+      <c r="F9" t="n" s="677">
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="G9" t="n" s="672">
+        <v>1.0</v>
+      </c>
+      <c r="H9" t="n" s="673">
+        <v>27.0</v>
+      </c>
+      <c r="I9" t="n" s="674">
+        <v>27.0</v>
+      </c>
+      <c r="J9" t="n" s="675">
+        <v>60.0</v>
+      </c>
+      <c r="K9" t="n" s="678">
+        <v>60.0</v>
+      </c>
+      <c r="L9" t="n" s="679">
+        <v>69.6</v>
+      </c>
+      <c r="M9" t="n" s="680">
+        <v>12736.8</v>
+      </c>
+      <c r="N9" t="n" s="681">
+        <v>120.03999999999999</v>
+      </c>
+      <c r="O9" t="n" s="682">
+        <v>21967.32</v>
+      </c>
+      <c r="P9" t="n" s="683">
+        <v>15.44</v>
+      </c>
+      <c r="Q9" t="n" s="684">
+        <v>2825.52</v>
+      </c>
+      <c r="R9" t="n" s="685">
+        <v>9.6</v>
+      </c>
+      <c r="S9" t="n" s="686">
+        <v>9.6</v>
+      </c>
+      <c r="T9" t="n" s="687">
+        <v>32.99999999999999</v>
+      </c>
+      <c r="U9" t="n" s="688">
+        <v>6038.999999999999</v>
+      </c>
+      <c r="V9" t="s" s="696">
+        <v>107</v>
+      </c>
+      <c r="W9" t="s" s="697">
+        <v>4</v>
+      </c>
+      <c r="X9" t="n" s="698">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="10" ht="30.0" customHeight="true">
+      <c r="A10" s="95"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="116"/>
+      <c r="I10" t="n" s="689">
+        <f>SUM(I2:I9)</f>
+        <v>216.0</v>
+      </c>
+      <c r="J10" s="122"/>
+      <c r="K10" t="n" s="690">
+        <f>SUM(K2:K9)</f>
+        <v>480.0</v>
+      </c>
+      <c r="L10" s="128"/>
+      <c r="M10" t="n" s="691">
+        <f>SUM(M2:M9)</f>
+        <v>104817.59999999999</v>
+      </c>
+      <c r="N10" s="134"/>
+      <c r="O10" t="n" s="692">
+        <f>SUM(O2:O9)</f>
+        <v>180780.24000000002</v>
+      </c>
+      <c r="P10" s="140"/>
+      <c r="Q10" t="n" s="693">
+        <f>SUM(Q2:Q9)</f>
+        <v>23252.64</v>
+      </c>
+      <c r="R10" s="146"/>
+      <c r="S10" t="n" s="694">
+        <f>SUM(S2:S9)</f>
+        <v>76.8</v>
+      </c>
+      <c r="T10" s="152"/>
+      <c r="U10" t="n" s="695">
+        <f>SUM(U2:U9)</f>
+        <v>49697.99999999999</v>
+      </c>
+      <c r="V10" s="158"/>
+      <c r="W10" s="161"/>
+      <c r="X10" s="164"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:X3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="58.59375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="58.59375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="19.53125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="433" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="436" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="439" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="442" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="445" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="448" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="451" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="454" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="457" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="460" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" s="463" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" s="466" t="s">
+        <v>88</v>
+      </c>
+      <c r="M1" s="469" t="s">
+        <v>89</v>
+      </c>
+      <c r="N1" s="472" t="s">
+        <v>90</v>
+      </c>
+      <c r="O1" s="475" t="s">
+        <v>91</v>
+      </c>
+      <c r="P1" s="478" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q1" s="481" t="s">
+        <v>93</v>
+      </c>
+      <c r="R1" s="484" t="s">
+        <v>94</v>
+      </c>
+      <c r="S1" s="487" t="s">
+        <v>95</v>
+      </c>
+      <c r="T1" s="490" t="s">
+        <v>96</v>
+      </c>
+      <c r="U1" s="493" t="s">
+        <v>97</v>
+      </c>
+      <c r="V1" s="496" t="s">
+        <v>98</v>
+      </c>
+      <c r="W1" s="499" t="s">
+        <v>99</v>
+      </c>
+      <c r="X1" s="502" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="503">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s" s="513">
+        <v>102</v>
+      </c>
+      <c r="C2" t="s" s="505">
+        <v>103</v>
+      </c>
+      <c r="D2" t="s" s="506">
+        <v>73</v>
+      </c>
+      <c r="E2" t="s" s="507">
+        <v>17</v>
+      </c>
+      <c r="F2" t="n" s="519">
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="G2" t="n" s="514">
+        <v>1.0</v>
+      </c>
+      <c r="H2" t="n" s="515">
+        <v>27.0</v>
+      </c>
+      <c r="I2" t="n" s="516">
+        <v>27.0</v>
+      </c>
+      <c r="J2" t="n" s="517">
+        <v>60.0</v>
+      </c>
+      <c r="K2" t="n" s="520">
+        <v>60.0</v>
+      </c>
+      <c r="L2" t="n" s="521">
+        <v>69.6</v>
+      </c>
+      <c r="M2" t="n" s="522">
+        <v>12875.999999999998</v>
+      </c>
+      <c r="N2" t="n" s="523">
+        <v>120.03999999999999</v>
+      </c>
+      <c r="O2" t="n" s="524">
+        <v>22207.399999999998</v>
+      </c>
+      <c r="P2" t="n" s="525">
+        <v>15.44</v>
+      </c>
+      <c r="Q2" t="n" s="526">
+        <v>2856.4</v>
+      </c>
+      <c r="R2" t="n" s="527">
+        <v>9.6</v>
+      </c>
+      <c r="S2" t="n" s="528">
+        <v>9.6</v>
+      </c>
+      <c r="T2" t="n" s="529">
+        <v>32.99999999999999</v>
+      </c>
+      <c r="U2" t="n" s="530">
+        <v>6104.999999999999</v>
+      </c>
+      <c r="V2" t="s" s="538">
+        <v>107</v>
+      </c>
+      <c r="W2" t="s" s="539">
+        <v>32</v>
+      </c>
+      <c r="X2" t="n" s="540">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="432"/>
+      <c r="B3" s="435"/>
+      <c r="C3" s="438"/>
+      <c r="D3" s="441"/>
+      <c r="E3" s="444"/>
+      <c r="F3" s="447"/>
+      <c r="G3" s="450"/>
+      <c r="H3" s="453"/>
+      <c r="I3" t="n" s="531">
+        <f>SUM(I2:I2)</f>
+        <v>27.0</v>
+      </c>
+      <c r="J3" s="459"/>
+      <c r="K3" t="n" s="532">
+        <f>SUM(K2:K2)</f>
+        <v>60.0</v>
+      </c>
+      <c r="L3" s="465"/>
+      <c r="M3" t="n" s="533">
+        <f>SUM(M2:M2)</f>
+        <v>12875.999999999998</v>
+      </c>
+      <c r="N3" s="471"/>
+      <c r="O3" t="n" s="534">
+        <f>SUM(O2:O2)</f>
+        <v>22207.399999999998</v>
+      </c>
+      <c r="P3" s="477"/>
+      <c r="Q3" t="n" s="535">
+        <f>SUM(Q2:Q2)</f>
+        <v>2856.4</v>
+      </c>
+      <c r="R3" s="483"/>
+      <c r="S3" t="n" s="536">
+        <f>SUM(S2:S2)</f>
+        <v>9.6</v>
+      </c>
+      <c r="T3" s="489"/>
+      <c r="U3" t="n" s="537">
+        <f>SUM(U2:U2)</f>
+        <v>6104.999999999999</v>
+      </c>
+      <c r="V3" s="495"/>
+      <c r="W3" s="498"/>
+      <c r="X3" s="501"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:X3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="58.59375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="58.59375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="19.53125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="543" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="546" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="549" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="552" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="555" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="558" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="561" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="564" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="567" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="570" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" s="573" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" s="576" t="s">
+        <v>88</v>
+      </c>
+      <c r="M1" s="579" t="s">
+        <v>89</v>
+      </c>
+      <c r="N1" s="582" t="s">
+        <v>90</v>
+      </c>
+      <c r="O1" s="585" t="s">
+        <v>91</v>
+      </c>
+      <c r="P1" s="588" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q1" s="591" t="s">
+        <v>93</v>
+      </c>
+      <c r="R1" s="594" t="s">
+        <v>94</v>
+      </c>
+      <c r="S1" s="597" t="s">
+        <v>95</v>
+      </c>
+      <c r="T1" s="600" t="s">
+        <v>96</v>
+      </c>
+      <c r="U1" s="603" t="s">
+        <v>97</v>
+      </c>
+      <c r="V1" s="606" t="s">
+        <v>98</v>
+      </c>
+      <c r="W1" s="609" t="s">
+        <v>99</v>
+      </c>
+      <c r="X1" s="612" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="613">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s" s="623">
+        <v>102</v>
+      </c>
+      <c r="C2" t="s" s="615">
+        <v>103</v>
+      </c>
+      <c r="D2" t="s" s="616">
+        <v>73</v>
+      </c>
+      <c r="E2" t="s" s="617">
+        <v>17</v>
+      </c>
+      <c r="F2" t="n" s="629">
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="G2" t="n" s="624">
+        <v>1.0</v>
+      </c>
+      <c r="H2" t="n" s="625">
+        <v>27.0</v>
+      </c>
+      <c r="I2" t="n" s="626">
+        <v>27.0</v>
+      </c>
+      <c r="J2" t="n" s="627">
+        <v>60.0</v>
+      </c>
+      <c r="K2" t="n" s="630">
+        <v>60.0</v>
+      </c>
+      <c r="L2" t="n" s="631">
+        <v>69.6</v>
+      </c>
+      <c r="M2" t="n" s="632">
+        <v>12806.4</v>
+      </c>
+      <c r="N2" t="n" s="633">
+        <v>120.03999999999999</v>
+      </c>
+      <c r="O2" t="n" s="634">
+        <v>22087.359999999997</v>
+      </c>
+      <c r="P2" t="n" s="635">
+        <v>15.44</v>
+      </c>
+      <c r="Q2" t="n" s="636">
+        <v>2840.96</v>
+      </c>
+      <c r="R2" t="n" s="637">
+        <v>9.6</v>
+      </c>
+      <c r="S2" t="n" s="638">
+        <v>9.6</v>
+      </c>
+      <c r="T2" t="n" s="639">
+        <v>32.99999999999999</v>
+      </c>
+      <c r="U2" t="n" s="640">
+        <v>6071.999999999999</v>
+      </c>
+      <c r="V2" t="s" s="648">
+        <v>107</v>
+      </c>
+      <c r="W2" t="s" s="649">
+        <v>32</v>
+      </c>
+      <c r="X2" t="n" s="650">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="542"/>
+      <c r="B3" s="545"/>
+      <c r="C3" s="548"/>
+      <c r="D3" s="551"/>
+      <c r="E3" s="554"/>
+      <c r="F3" s="557"/>
+      <c r="G3" s="560"/>
+      <c r="H3" s="563"/>
+      <c r="I3" t="n" s="641">
+        <f>SUM(I2:I2)</f>
+        <v>27.0</v>
+      </c>
+      <c r="J3" s="569"/>
+      <c r="K3" t="n" s="642">
+        <f>SUM(K2:K2)</f>
+        <v>60.0</v>
+      </c>
+      <c r="L3" s="575"/>
+      <c r="M3" t="n" s="643">
+        <f>SUM(M2:M2)</f>
+        <v>12806.4</v>
+      </c>
+      <c r="N3" s="581"/>
+      <c r="O3" t="n" s="644">
+        <f>SUM(O2:O2)</f>
+        <v>22087.359999999997</v>
+      </c>
+      <c r="P3" s="587"/>
+      <c r="Q3" t="n" s="645">
+        <f>SUM(Q2:Q2)</f>
+        <v>2840.96</v>
+      </c>
+      <c r="R3" s="593"/>
+      <c r="S3" t="n" s="646">
+        <f>SUM(S2:S2)</f>
+        <v>9.6</v>
+      </c>
+      <c r="T3" s="599"/>
+      <c r="U3" t="n" s="647">
+        <f>SUM(U2:U2)</f>
+        <v>6071.999999999999</v>
+      </c>
+      <c r="V3" s="605"/>
+      <c r="W3" s="608"/>
+      <c r="X3" s="611"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:X3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="58.59375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="58.59375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="19.53125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="707" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="710" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="713" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="716" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="719" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="722" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="725" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="728" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="731" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="734" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" s="737" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" s="740" t="s">
+        <v>88</v>
+      </c>
+      <c r="M1" s="743" t="s">
+        <v>89</v>
+      </c>
+      <c r="N1" s="746" t="s">
+        <v>90</v>
+      </c>
+      <c r="O1" s="749" t="s">
+        <v>91</v>
+      </c>
+      <c r="P1" s="752" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q1" s="755" t="s">
+        <v>93</v>
+      </c>
+      <c r="R1" s="758" t="s">
+        <v>94</v>
+      </c>
+      <c r="S1" s="761" t="s">
+        <v>95</v>
+      </c>
+      <c r="T1" s="764" t="s">
+        <v>96</v>
+      </c>
+      <c r="U1" s="767" t="s">
+        <v>97</v>
+      </c>
+      <c r="V1" s="770" t="s">
+        <v>98</v>
+      </c>
+      <c r="W1" s="773" t="s">
+        <v>99</v>
+      </c>
+      <c r="X1" s="776" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="777">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s" s="787">
+        <v>102</v>
+      </c>
+      <c r="C2" t="s" s="779">
+        <v>103</v>
+      </c>
+      <c r="D2" t="s" s="780">
+        <v>73</v>
+      </c>
+      <c r="E2" t="s" s="781">
+        <v>17</v>
+      </c>
+      <c r="F2" t="n" s="793">
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="G2" t="n" s="788">
+        <v>1.0</v>
+      </c>
+      <c r="H2" t="n" s="789">
+        <v>27.0</v>
+      </c>
+      <c r="I2" t="n" s="790">
+        <v>27.0</v>
+      </c>
+      <c r="J2" t="n" s="791">
+        <v>60.0</v>
+      </c>
+      <c r="K2" t="n" s="794">
+        <v>60.0</v>
+      </c>
+      <c r="L2" t="n" s="795">
+        <v>69.6</v>
+      </c>
+      <c r="M2" t="n" s="796">
+        <v>12667.199999999999</v>
+      </c>
+      <c r="N2" t="n" s="797">
+        <v>120.03999999999999</v>
+      </c>
+      <c r="O2" t="n" s="798">
+        <v>21847.28</v>
+      </c>
+      <c r="P2" t="n" s="799">
+        <v>15.44</v>
+      </c>
+      <c r="Q2" t="n" s="800">
+        <v>2810.08</v>
+      </c>
+      <c r="R2" t="n" s="801">
+        <v>9.6</v>
+      </c>
+      <c r="S2" t="n" s="802">
+        <v>9.6</v>
+      </c>
+      <c r="T2" t="n" s="803">
+        <v>32.99999999999999</v>
+      </c>
+      <c r="U2" t="n" s="804">
+        <v>6005.999999999999</v>
+      </c>
+      <c r="V2" t="s" s="812">
+        <v>107</v>
+      </c>
+      <c r="W2" t="s" s="813">
+        <v>119</v>
+      </c>
+      <c r="X2" t="n" s="814">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="706"/>
+      <c r="B3" s="709"/>
+      <c r="C3" s="712"/>
+      <c r="D3" s="715"/>
+      <c r="E3" s="718"/>
+      <c r="F3" s="721"/>
+      <c r="G3" s="724"/>
+      <c r="H3" s="727"/>
+      <c r="I3" t="n" s="805">
+        <f>SUM(I2:I2)</f>
+        <v>27.0</v>
+      </c>
+      <c r="J3" s="733"/>
+      <c r="K3" t="n" s="806">
+        <f>SUM(K2:K2)</f>
+        <v>60.0</v>
+      </c>
+      <c r="L3" s="739"/>
+      <c r="M3" t="n" s="807">
+        <f>SUM(M2:M2)</f>
+        <v>12667.199999999999</v>
+      </c>
+      <c r="N3" s="745"/>
+      <c r="O3" t="n" s="808">
+        <f>SUM(O2:O2)</f>
+        <v>21847.28</v>
+      </c>
+      <c r="P3" s="751"/>
+      <c r="Q3" t="n" s="809">
+        <f>SUM(Q2:Q2)</f>
+        <v>2810.08</v>
+      </c>
+      <c r="R3" s="757"/>
+      <c r="S3" t="n" s="810">
+        <f>SUM(S2:S2)</f>
+        <v>9.6</v>
+      </c>
+      <c r="T3" s="763"/>
+      <c r="U3" t="n" s="811">
+        <f>SUM(U2:U2)</f>
+        <v>6005.999999999999</v>
+      </c>
+      <c r="V3" s="769"/>
+      <c r="W3" s="772"/>
+      <c r="X3" s="775"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/JavaApplication19/src/excel/CRM.xlsx
+++ b/JavaApplication19/src/excel/CRM.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="130">
   <si>
     <t>UBICACIÓN</t>
   </si>
@@ -408,6 +408,18 @@
   </si>
   <si>
     <t>=HIPERVINCULO("[historialCompras.xlsx]'DODO'! A1 "," IR A HISTORIAL")</t>
+  </si>
+  <si>
+    <t>JUANKY</t>
+  </si>
+  <si>
+    <t>34567890</t>
+  </si>
+  <si>
+    <t>COAOA</t>
+  </si>
+  <si>
+    <t>=HIPERVINCULO("[historialCompras.xlsx]'JUANKY'! A1 "," IR A HISTORIAL")</t>
   </si>
 </sst>
 </file>
@@ -417,7 +429,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="820" x14ac:knownFonts="1">
+  <fonts count="826" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5142,6 +5154,42 @@
     <font>
       <name val="Calibri"/>
       <sz val="1.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
       <color indexed="8"/>
       <b val="true"/>
     </font>
@@ -5429,7 +5477,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="821">
+  <cellXfs count="827">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7889,6 +7937,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="819" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="820" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="821" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="822" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="823" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="824" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="825" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8256,7 +8322,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF88BFBD-5212-4B86-8C87-DFFC23B6C3D0}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8698,6 +8764,23 @@
       </c>
       <c r="E26" t="s" s="820">
         <v>125</v>
+      </c>
+    </row>
+    <row r="27" ht="28.8" customHeight="true">
+      <c r="A27" t="s" s="821">
+        <v>126</v>
+      </c>
+      <c r="B27" t="s" s="822">
+        <v>127</v>
+      </c>
+      <c r="C27" t="s" s="823">
+        <v>128</v>
+      </c>
+      <c r="D27" t="s" s="824">
+        <v>32</v>
+      </c>
+      <c r="E27" t="s" s="826">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/JavaApplication19/src/excel/CRM.xlsx
+++ b/JavaApplication19/src/excel/CRM.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="143">
   <si>
     <t>UBICACIÓN</t>
   </si>
@@ -420,6 +420,45 @@
   </si>
   <si>
     <t>=HIPERVINCULO("[historialCompras.xlsx]'JUANKY'! A1 "," IR A HISTORIAL")</t>
+  </si>
+  <si>
+    <t>aver k pasa</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>dssfs</t>
+  </si>
+  <si>
+    <t>dsfdfs</t>
+  </si>
+  <si>
+    <t>=HIPERVINCULO("[historialCompras.xlsx]'aver k pasa'! A1 "," IR A HISTORIAL")</t>
+  </si>
+  <si>
+    <t>MARIO ANGELITO</t>
+  </si>
+  <si>
+    <t>312321</t>
+  </si>
+  <si>
+    <t>OLA</t>
+  </si>
+  <si>
+    <t>=HIPERVINCULO("[historialCompras.xlsx]'MARIO ANGELITO'! A1 "," IR A HISTORIAL")</t>
+  </si>
+  <si>
+    <t>NAVARRITO</t>
+  </si>
+  <si>
+    <t>213312</t>
+  </si>
+  <si>
+    <t>YOUTUBE</t>
+  </si>
+  <si>
+    <t>=HIPERVINCULO("[historialCompras.xlsx]'NAVARRITO'! A1 "," IR A HISTORIAL")</t>
   </si>
 </sst>
 </file>
@@ -429,7 +468,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="826" x14ac:knownFonts="1">
+  <fonts count="844" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5154,6 +5193,114 @@
     <font>
       <name val="Calibri"/>
       <sz val="1.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
       <color indexed="8"/>
       <b val="true"/>
     </font>
@@ -5477,7 +5624,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="827">
+  <cellXfs count="845">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7955,6 +8102,60 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="825" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="826" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="827" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="828" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="829" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="830" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="831" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="832" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="833" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="834" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="835" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="836" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="837" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="838" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="839" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="840" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="841" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="842" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="843" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8322,7 +8523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF88BFBD-5212-4B86-8C87-DFFC23B6C3D0}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8781,6 +8982,57 @@
       </c>
       <c r="E27" t="s" s="826">
         <v>129</v>
+      </c>
+    </row>
+    <row r="28" ht="28.8" customHeight="true">
+      <c r="A28" t="s" s="827">
+        <v>130</v>
+      </c>
+      <c r="B28" t="s" s="828">
+        <v>131</v>
+      </c>
+      <c r="C28" t="s" s="829">
+        <v>132</v>
+      </c>
+      <c r="D28" t="s" s="830">
+        <v>133</v>
+      </c>
+      <c r="E28" t="s" s="832">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" ht="28.8" customHeight="true">
+      <c r="A29" t="s" s="833">
+        <v>135</v>
+      </c>
+      <c r="B29" t="s" s="834">
+        <v>136</v>
+      </c>
+      <c r="C29" t="s" s="835">
+        <v>137</v>
+      </c>
+      <c r="D29" t="s" s="836">
+        <v>32</v>
+      </c>
+      <c r="E29" t="s" s="838">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" ht="28.8" customHeight="true">
+      <c r="A30" t="s" s="839">
+        <v>139</v>
+      </c>
+      <c r="B30" t="s" s="840">
+        <v>140</v>
+      </c>
+      <c r="C30" t="s" s="841">
+        <v>137</v>
+      </c>
+      <c r="D30" t="s" s="842">
+        <v>141</v>
+      </c>
+      <c r="E30" t="s" s="844">
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/JavaApplication19/src/excel/CRM.xlsx
+++ b/JavaApplication19/src/excel/CRM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F612C8-BE65-44C3-B538-DCBA68722EA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1322E61F-4FFA-4089-9178-FFC92E6F01C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0F05C854-3B11-4A54-A23A-5F8640A13B2A}"/>
   </bookViews>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>UBICACIÓN</t>
   </si>
@@ -67,6 +61,9 @@
   </si>
   <si>
     <t>HISTORIAL DE COMPRAS\ENRIQUE OROZCO LUEVANO.xlsx</t>
+  </si>
+  <si>
+    <t>CLIENTE</t>
   </si>
 </sst>
 </file>
@@ -154,12 +151,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -188,56 +182,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1008167</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="624690" cy="468576"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="12 Imagen">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36A20111-8672-4F89-8E6B-2348283DEE66}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1008167" y="0"/>
-          <a:ext cx="624690" cy="468576"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -541,7 +485,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,17 +494,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -575,7 +521,7 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -588,7 +534,7 @@
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -603,7 +549,7 @@
       <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -808,6 +754,5 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/JavaApplication19/src/excel/CRM.xlsx
+++ b/JavaApplication19/src/excel/CRM.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1322E61F-4FFA-4089-9178-FFC92E6F01C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CF5BC5-F1BC-44E1-859B-4151BC856BC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0F05C854-3B11-4A54-A23A-5F8640A13B2A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Clientes " sheetId="1" r:id="rId1"/>
+    <sheet name="CLIENTES" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>

--- a/JavaApplication19/src/excel/CRM.xlsx
+++ b/JavaApplication19/src/excel/CRM.xlsx
@@ -8,24 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CF5BC5-F1BC-44E1-859B-4151BC856BC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B0EC66-2858-4A5D-B7E5-5A9EA99512DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0F05C854-3B11-4A54-A23A-5F8640A13B2A}"/>
   </bookViews>
   <sheets>
-    <sheet name="CLIENTES" sheetId="1" r:id="rId1"/>
+    <sheet name="CLIENTES NUEVOS" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>UBICACIÓN</t>
   </si>
@@ -61,9 +67,6 @@
   </si>
   <si>
     <t>HISTORIAL DE COMPRAS\ENRIQUE OROZCO LUEVANO.xlsx</t>
-  </si>
-  <si>
-    <t>CLIENTE</t>
   </si>
 </sst>
 </file>
@@ -151,9 +154,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -182,6 +188,56 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1008167</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="624690" cy="468576"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="12 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36A20111-8672-4F89-8E6B-2348283DEE66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1008167" y="0"/>
+          <a:ext cx="624690" cy="468576"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -485,7 +541,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -494,19 +550,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -521,7 +575,7 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -534,7 +588,7 @@
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -549,7 +603,7 @@
       <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -754,5 +808,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/JavaApplication19/src/excel/CRM.xlsx
+++ b/JavaApplication19/src/excel/CRM.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Desarrollo\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B0EC66-2858-4A5D-B7E5-5A9EA99512DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAFA789-B77C-48AD-ACFA-33611A245DAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0F05C854-3B11-4A54-A23A-5F8640A13B2A}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="26055" windowHeight="14310" xr2:uid="{0F05C854-3B11-4A54-A23A-5F8640A13B2A}"/>
   </bookViews>
   <sheets>
-    <sheet name="CLIENTES NUEVOS" sheetId="1" r:id="rId1"/>
+    <sheet name="CLIENTES" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>UBICACIÓN</t>
   </si>
@@ -67,13 +69,103 @@
   </si>
   <si>
     <t>HISTORIAL DE COMPRAS\ENRIQUE OROZCO LUEVANO.xlsx</t>
+  </si>
+  <si>
+    <t>dasda</t>
+  </si>
+  <si>
+    <t>32423</t>
+  </si>
+  <si>
+    <t>sadas</t>
+  </si>
+  <si>
+    <t>=HIPERVINCULO("[historialCompras.xlsx]'dasda'! A1 "," IR A HISTORIAL")</t>
+  </si>
+  <si>
+    <t>asdhgfdsa</t>
+  </si>
+  <si>
+    <t>1231231</t>
+  </si>
+  <si>
+    <t>sdadsads</t>
+  </si>
+  <si>
+    <t>sadsadsaa</t>
+  </si>
+  <si>
+    <t>=HIPERVINCULO("[historialCompras.xlsx]'asdhgfdsa'! A1 "," IR A HISTORIAL")</t>
+  </si>
+  <si>
+    <t>SDKAHSDAS</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>DSAASDA</t>
+  </si>
+  <si>
+    <t>SDASD</t>
+  </si>
+  <si>
+    <t>EL JERINGAS</t>
+  </si>
+  <si>
+    <t>12324</t>
+  </si>
+  <si>
+    <t>SAKNDKADS</t>
+  </si>
+  <si>
+    <t>DASDSADS</t>
+  </si>
+  <si>
+    <t>DON RIATAS</t>
+  </si>
+  <si>
+    <t>3221</t>
+  </si>
+  <si>
+    <t>asAS</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>=HIPERVINCULO("[historialCompras.xlsx]'DON RIATAS'! A1 "," IR A HISTORIAL")</t>
+  </si>
+  <si>
+    <t>ALBERTO</t>
+  </si>
+  <si>
+    <t>43242</t>
+  </si>
+  <si>
+    <t>FSDFSD</t>
+  </si>
+  <si>
+    <t>FDSFS</t>
+  </si>
+  <si>
+    <t>jesusito</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>sadasds</t>
+  </si>
+  <si>
+    <t>parral</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,8 +197,194 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,8 +402,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEEEEE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -148,13 +431,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -171,11 +499,113 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="1" builtinId="21"/>
+    <cellStyle name="Salida" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -241,7 +671,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -537,19 +967,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF88BFBD-5212-4B86-8C87-DFFC23B6C3D0}">
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="40.6640625" customWidth="1"/>
+    <col min="1" max="5" width="40.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>5</v>
@@ -564,7 +994,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -577,7 +1007,7 @@
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -592,7 +1022,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -605,203 +1035,129 @@
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="20" t="str">
+        <f>HYPERLINK("[historialCompras.xlsx]'SDKAHSDAS'! A1 "," IR A HISTORIAL")</f>
+        <v xml:space="preserve"> IR A HISTORIAL</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="34" t="str">
+        <f>HYPERLINK("[historialCompras.xlsx]'EL JERINGAS'! A1 "," IR A HISTORIAL")</f>
+        <v xml:space="preserve"> IR A HISTORIAL</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="34" t="str">
+        <f>HYPERLINK("[historialCompras.xlsx]'ALBERTO'! A1 "," IR A HISTORIAL")</f>
+        <v xml:space="preserve"> IR A HISTORIAL</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="39" t="str">
+        <f>HYPERLINK("[historialCompras.xlsx]'jesusito'! A1 "," IR A HISTORIAL")</f>
+        <v xml:space="preserve"> IR A HISTORIAL</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{8DC55BF5-DD52-42F7-BB15-6055780572EC}"/>

--- a/JavaApplication19/src/excel/CRM.xlsx
+++ b/JavaApplication19/src/excel/CRM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Desarrollo\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
   <si>
     <t>UBICACIÓN</t>
   </si>
@@ -159,13 +159,83 @@
   </si>
   <si>
     <t>parral</t>
+  </si>
+  <si>
+    <t>EFRAIN BACA</t>
+  </si>
+  <si>
+    <t>2123978321</t>
+  </si>
+  <si>
+    <t>CORREO</t>
+  </si>
+  <si>
+    <t>PARRAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>=HIPERVINCULO("[historialCompras.xlsx]'EFRAIN BACA'! A1 "," IR A HISTORIAL")</t>
+  </si>
+  <si>
+    <t>ALBERTANO</t>
+  </si>
+  <si>
+    <t>233232</t>
+  </si>
+  <si>
+    <t>ASDA</t>
+  </si>
+  <si>
+    <t>ASDAS</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>JUANITO SOTO</t>
+  </si>
+  <si>
+    <t>12312</t>
+  </si>
+  <si>
+    <t>SAD</t>
+  </si>
+  <si>
+    <t>DSAD</t>
+  </si>
+  <si>
+    <t>OLI DELGADO</t>
+  </si>
+  <si>
+    <t>234324</t>
+  </si>
+  <si>
+    <t>SDASA</t>
+  </si>
+  <si>
+    <t>PEPITO</t>
+  </si>
+  <si>
+    <t>2423</t>
+  </si>
+  <si>
+    <t>ASNDKASADS</t>
+  </si>
+  <si>
+    <t>DSADASS</t>
+  </si>
+  <si>
+    <t>=HIPERVINCULO("[historialCompras.xlsx]'PEPITO'! A1 "," IR A HISTORIAL")</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="35" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="62" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,8 +453,170 @@
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -407,8 +639,23 @@
         <fgColor rgb="FFEEEEEE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="EEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="BFBFBF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="BFBFBF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -476,13 +723,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -599,6 +864,87 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -967,7 +1313,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF88BFBD-5212-4B86-8C87-DFFC23B6C3D0}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -976,7 +1322,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="40.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="5" customWidth="true" width="40.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -994,7 +1340,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1007,7 +1353,7 @@
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1022,7 +1368,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1035,7 +1381,7 @@
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
@@ -1052,7 +1398,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>16</v>
       </c>
@@ -1069,7 +1415,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>21</v>
       </c>
@@ -1087,7 +1433,7 @@
         <v xml:space="preserve"> IR A HISTORIAL</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>25</v>
       </c>
@@ -1105,7 +1451,7 @@
         <v xml:space="preserve"> IR A HISTORIAL</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>29</v>
       </c>
@@ -1122,7 +1468,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
         <v>34</v>
       </c>
@@ -1140,7 +1486,7 @@
         <v xml:space="preserve"> IR A HISTORIAL</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>38</v>
       </c>
@@ -1156,6 +1502,91 @@
       <c r="E11" s="39" t="str">
         <f>HYPERLINK("[historialCompras.xlsx]'jesusito'! A1 "," IR A HISTORIAL")</f>
         <v xml:space="preserve"> IR A HISTORIAL</v>
+      </c>
+    </row>
+    <row r="12" ht="30.0" customHeight="true">
+      <c r="A12" t="s" s="40">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s" s="41">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s" s="42">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s" s="43">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s" s="45">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" ht="30.0" customHeight="true">
+      <c r="A13" t="s" s="46">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s" s="47">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s" s="48">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s" s="49">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s" s="50">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" ht="30.0" customHeight="true">
+      <c r="A14" t="s" s="51">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s" s="52">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s" s="53">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s" s="54">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s" s="55">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" ht="30.0" customHeight="true">
+      <c r="A15" t="s" s="56">
+        <v>57</v>
+      </c>
+      <c r="B15" t="s" s="57">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s" s="58">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s" s="59">
+        <v>59</v>
+      </c>
+      <c r="E15" t="s" s="60">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" ht="30.0" customHeight="true">
+      <c r="A16" t="s" s="61">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s" s="62">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s" s="63">
+        <v>62</v>
+      </c>
+      <c r="D16" t="s" s="64">
+        <v>63</v>
+      </c>
+      <c r="E16" t="s" s="66">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
